--- a/CSU CN.xlsx
+++ b/CSU CN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B882BF3C-6B46-4E97-9A8A-7074F0B410DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1EE3AEB-5D86-4D53-B490-EEC3D25FB819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{FDA61D46-91E7-4102-8A99-F00744CD4A07}"/>
+    <workbookView xWindow="-51720" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{FDA61D46-91E7-4102-8A99-F00744CD4A07}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="74">
   <si>
     <t>Price CAD</t>
   </si>
@@ -183,6 +183,81 @@
   </si>
   <si>
     <t>Revenue y/y</t>
+  </si>
+  <si>
+    <t>Q123</t>
+  </si>
+  <si>
+    <t>Q223</t>
+  </si>
+  <si>
+    <t>Q323</t>
+  </si>
+  <si>
+    <t>Q423</t>
+  </si>
+  <si>
+    <t>Organic y/y</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>A/R</t>
+  </si>
+  <si>
+    <t>Unbilled</t>
+  </si>
+  <si>
+    <t>Inventories</t>
+  </si>
+  <si>
+    <t>PP&amp;E</t>
+  </si>
+  <si>
+    <t>ROU</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>Intangibles</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>Debt</t>
+  </si>
+  <si>
+    <t>Dividends</t>
+  </si>
+  <si>
+    <t>DR</t>
+  </si>
+  <si>
+    <t>AP+Provisions</t>
+  </si>
+  <si>
+    <t>Holdback</t>
+  </si>
+  <si>
+    <t>Leases</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>L+SE</t>
+  </si>
+  <si>
+    <t>Topicus</t>
+  </si>
+  <si>
+    <t>Altera - 72m</t>
+  </si>
+  <si>
+    <t>Net Cash</t>
   </si>
 </sst>
 </file>
@@ -269,6 +344,111 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>17860</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>65484</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>17860</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>53578</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51520A1B-C785-CF41-986F-B02E0C68D9A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8792766" y="65484"/>
+          <a:ext cx="0" cy="7060407"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>21432</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>21432</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>148828</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F593C8A-6D1F-4F2C-BE7C-586D7FFFE942}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13654088" y="0"/>
+          <a:ext cx="0" cy="10757297"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -568,10 +748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3361BD8-E4FD-4768-8AA5-DD22841FBF05}">
-  <dimension ref="N2:P7"/>
+  <dimension ref="B2:P7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -579,15 +759,21 @@
     <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="14:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
       <c r="N2" t="s">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2189.48</v>
-      </c>
-    </row>
-    <row r="3" spans="14:16" x14ac:dyDescent="0.2">
+        <v>2651.82</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
       <c r="N3" t="s">
         <v>1</v>
       </c>
@@ -595,48 +781,47 @@
         <v>21.19153</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="14:16" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="N4" t="s">
         <v>2</v>
       </c>
       <c r="O4" s="2">
         <f>+O2*O3</f>
-        <v>46398.431104399999</v>
-      </c>
-    </row>
-    <row r="5" spans="14:16" x14ac:dyDescent="0.2">
+        <v>56196.123084600003</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="N5" t="s">
         <v>4</v>
       </c>
       <c r="O5" s="2">
-        <v>676</v>
+        <v>811</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="14:16" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="N6" t="s">
         <v>5</v>
       </c>
       <c r="O6" s="2">
-        <f>541+746+389+206</f>
-        <v>1882</v>
+        <v>1974</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="14:16" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="N7" t="s">
         <v>3</v>
       </c>
       <c r="O7" s="2">
         <f>+O4-O5+O6</f>
-        <v>47604.431104399999</v>
+        <v>57359.123084600003</v>
       </c>
     </row>
   </sheetData>
@@ -646,28 +831,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D5D57C4-A57D-4C23-A569-5140111B21B9}">
-  <dimension ref="A1:S39"/>
+  <dimension ref="A1:AI64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomRight" activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="14" width="9.140625" style="1"/>
+    <col min="3" max="17" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
@@ -704,17 +889,78 @@
       <c r="N2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q2">
+      <c r="O2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T2">
+        <v>2018</v>
+      </c>
+      <c r="U2">
+        <v>2019</v>
+      </c>
+      <c r="V2">
         <v>2020</v>
       </c>
-      <c r="R2">
+      <c r="W2">
         <v>2021</v>
       </c>
-      <c r="S2">
+      <c r="X2">
         <v>2022</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y2">
+        <v>2023</v>
+      </c>
+      <c r="Z2">
+        <f>Y2+1</f>
+        <v>2024</v>
+      </c>
+      <c r="AA2">
+        <f t="shared" ref="AA2:AI2" si="0">Z2+1</f>
+        <v>2025</v>
+      </c>
+      <c r="AB2">
+        <f t="shared" si="0"/>
+        <v>2026</v>
+      </c>
+      <c r="AC2">
+        <f t="shared" si="0"/>
+        <v>2027</v>
+      </c>
+      <c r="AD2">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+      <c r="AE2">
+        <f t="shared" si="0"/>
+        <v>2029</v>
+      </c>
+      <c r="AF2">
+        <f t="shared" si="0"/>
+        <v>2030</v>
+      </c>
+      <c r="AG2">
+        <f t="shared" si="0"/>
+        <v>2031</v>
+      </c>
+      <c r="AH2">
+        <f t="shared" si="0"/>
+        <v>2032</v>
+      </c>
+      <c r="AI2">
+        <f t="shared" si="0"/>
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>20</v>
       </c>
@@ -734,7 +980,7 @@
         <v>69</v>
       </c>
       <c r="J3" s="3">
-        <f>+R3-I3-H3-G3</f>
+        <f>+W3-I3-H3-G3</f>
         <v>81</v>
       </c>
       <c r="K3" s="3">
@@ -743,17 +989,33 @@
       <c r="L3" s="3">
         <v>72</v>
       </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="Q3" s="3">
+      <c r="M3" s="3">
+        <v>79</v>
+      </c>
+      <c r="N3" s="3">
+        <f>X3-M3-L3-K3</f>
+        <v>100</v>
+      </c>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="T3" s="2">
+        <v>198</v>
+      </c>
+      <c r="U3" s="2">
+        <v>226</v>
+      </c>
+      <c r="V3" s="3">
         <v>234</v>
       </c>
-      <c r="R3" s="3">
+      <c r="W3" s="3">
         <v>287</v>
       </c>
-      <c r="S3" s="3"/>
-    </row>
-    <row r="4" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X3" s="3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
@@ -773,7 +1035,7 @@
         <v>256</v>
       </c>
       <c r="J4" s="3">
-        <f t="shared" ref="J4:J14" si="0">+R4-I4-H4-G4</f>
+        <f t="shared" ref="J4:J14" si="1">+W4-I4-H4-G4</f>
         <v>286</v>
       </c>
       <c r="K4" s="3">
@@ -782,17 +1044,33 @@
       <c r="L4" s="3">
         <v>340</v>
       </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="Q4" s="3">
+      <c r="M4" s="3">
+        <v>375</v>
+      </c>
+      <c r="N4" s="3">
+        <f t="shared" ref="N4:N14" si="2">X4-M4-L4-K4</f>
+        <v>396</v>
+      </c>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="T4" s="2">
+        <v>616</v>
+      </c>
+      <c r="U4" s="2">
+        <v>673</v>
+      </c>
+      <c r="V4" s="3">
         <v>751</v>
       </c>
-      <c r="R4" s="3">
+      <c r="W4" s="3">
         <v>1033</v>
       </c>
-      <c r="S4" s="3"/>
-    </row>
-    <row r="5" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X4" s="3">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>22</v>
       </c>
@@ -812,7 +1090,7 @@
         <v>45</v>
       </c>
       <c r="J5" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="K5" s="3">
@@ -821,17 +1099,33 @@
       <c r="L5" s="3">
         <v>50</v>
       </c>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="Q5" s="3">
+      <c r="M5" s="3">
+        <v>54</v>
+      </c>
+      <c r="N5" s="3">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="T5" s="2">
+        <v>175</v>
+      </c>
+      <c r="U5" s="2">
+        <v>173</v>
+      </c>
+      <c r="V5" s="3">
         <v>169</v>
       </c>
-      <c r="R5" s="3">
+      <c r="W5" s="3">
         <v>176</v>
       </c>
-      <c r="S5" s="3"/>
-    </row>
-    <row r="6" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X5" s="3">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>23</v>
       </c>
@@ -851,7 +1145,7 @@
         <v>929</v>
       </c>
       <c r="J6" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>968</v>
       </c>
       <c r="K6" s="3">
@@ -860,17 +1154,33 @@
       <c r="L6" s="3">
         <v>1156</v>
       </c>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="Q6" s="3">
+      <c r="M6" s="3">
+        <v>1217</v>
+      </c>
+      <c r="N6" s="3">
+        <f t="shared" si="2"/>
+        <v>1270</v>
+      </c>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="T6" s="2">
+        <v>2072</v>
+      </c>
+      <c r="U6" s="2">
+        <v>2417</v>
+      </c>
+      <c r="V6" s="3">
         <v>2815</v>
       </c>
-      <c r="R6" s="3">
+      <c r="W6" s="3">
         <v>3611</v>
       </c>
-      <c r="S6" s="3"/>
-    </row>
-    <row r="7" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X6" s="3">
+        <v>4688</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -882,42 +1192,106 @@
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5">
-        <f>SUM(G3:G6)</f>
+        <f t="shared" ref="G7:N7" si="3">SUM(G3:G6)</f>
         <v>1176</v>
       </c>
       <c r="H7" s="5">
-        <f>SUM(H3:H6)</f>
+        <f t="shared" si="3"/>
         <v>1248</v>
       </c>
       <c r="I7" s="5">
-        <f>SUM(I3:I6)</f>
+        <f t="shared" si="3"/>
         <v>1299</v>
       </c>
       <c r="J7" s="5">
-        <f>SUM(J3:J6)</f>
+        <f t="shared" si="3"/>
         <v>1384</v>
       </c>
       <c r="K7" s="5">
-        <f>SUM(K3:K6)</f>
+        <f t="shared" si="3"/>
         <v>1431</v>
       </c>
       <c r="L7" s="5">
-        <f>SUM(L3:L6)</f>
+        <f t="shared" si="3"/>
         <v>1618</v>
       </c>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="Q7" s="5">
-        <f>SUM(Q3:Q6)</f>
+      <c r="M7" s="5">
+        <f t="shared" si="3"/>
+        <v>1725</v>
+      </c>
+      <c r="N7" s="5">
+        <f t="shared" si="3"/>
+        <v>1848</v>
+      </c>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="T7" s="5">
+        <f>SUM(T3:T6)</f>
+        <v>3061</v>
+      </c>
+      <c r="U7" s="5">
+        <f>SUM(U3:U6)</f>
+        <v>3489</v>
+      </c>
+      <c r="V7" s="5">
+        <f>SUM(V3:V6)</f>
         <v>3969</v>
       </c>
-      <c r="R7" s="5">
-        <f>SUM(R3:R6)</f>
+      <c r="W7" s="5">
+        <f>SUM(W3:W6)</f>
         <v>5107</v>
       </c>
-      <c r="S7" s="5"/>
-    </row>
-    <row r="8" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X7" s="5">
+        <f>SUM(X3:X6)</f>
+        <v>6622</v>
+      </c>
+      <c r="Y7" s="5">
+        <f t="shared" ref="Y7:AI7" si="4">SUM(Y3:Y6)</f>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB7" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC7" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD7" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AE7" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG7" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AH7" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI7" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
@@ -937,7 +1311,7 @@
         <v>676</v>
       </c>
       <c r="J8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>713</v>
       </c>
       <c r="K8" s="3">
@@ -946,17 +1320,33 @@
       <c r="L8" s="3">
         <v>873</v>
       </c>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="Q8" s="3">
+      <c r="M8" s="3">
+        <v>925</v>
+      </c>
+      <c r="N8" s="3">
+        <f t="shared" si="2"/>
+        <v>958</v>
+      </c>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="T8" s="2">
+        <v>1565</v>
+      </c>
+      <c r="U8" s="2">
+        <v>1797</v>
+      </c>
+      <c r="V8" s="3">
         <v>2050</v>
       </c>
-      <c r="R8" s="3">
+      <c r="W8" s="3">
         <v>2695</v>
       </c>
-      <c r="S8" s="3"/>
-    </row>
-    <row r="9" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>3539</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
@@ -976,7 +1366,7 @@
         <v>25</v>
       </c>
       <c r="J9" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="K9" s="3">
@@ -985,17 +1375,33 @@
       <c r="L9" s="3">
         <v>29</v>
       </c>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="Q9" s="3">
+      <c r="M9" s="3">
+        <v>31</v>
+      </c>
+      <c r="N9" s="3">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="T9" s="2">
+        <v>96</v>
+      </c>
+      <c r="U9" s="2">
+        <v>101</v>
+      </c>
+      <c r="V9" s="3">
         <v>97</v>
       </c>
-      <c r="R9" s="3">
+      <c r="W9" s="3">
         <v>99</v>
       </c>
-      <c r="S9" s="3"/>
-    </row>
-    <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X9" s="3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
@@ -1015,7 +1421,7 @@
         <v>113</v>
       </c>
       <c r="J10" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>115</v>
       </c>
       <c r="K10" s="3">
@@ -1024,17 +1430,33 @@
       <c r="L10" s="3">
         <v>153</v>
       </c>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="Q10" s="3">
+      <c r="M10" s="3">
+        <v>167</v>
+      </c>
+      <c r="N10" s="3">
+        <f t="shared" si="2"/>
+        <v>184</v>
+      </c>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="T10" s="2">
+        <v>265</v>
+      </c>
+      <c r="U10" s="2">
+        <v>300</v>
+      </c>
+      <c r="V10" s="3">
         <v>330</v>
       </c>
-      <c r="R10" s="3">
+      <c r="W10" s="3">
         <v>433</v>
       </c>
-      <c r="S10" s="3"/>
-    </row>
-    <row r="11" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X10" s="3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
@@ -1054,7 +1476,7 @@
         <v>10</v>
       </c>
       <c r="J11" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="K11" s="3">
@@ -1063,17 +1485,33 @@
       <c r="L11" s="3">
         <v>12</v>
       </c>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="Q11" s="3">
+      <c r="M11" s="3">
+        <v>12</v>
+      </c>
+      <c r="N11" s="3">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="T11" s="2">
+        <v>78</v>
+      </c>
+      <c r="U11" s="2">
         <v>35</v>
       </c>
-      <c r="R11" s="3">
+      <c r="V11" s="3">
+        <v>35</v>
+      </c>
+      <c r="W11" s="3">
         <v>40</v>
       </c>
-      <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X11" s="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>27</v>
       </c>
@@ -1093,7 +1531,7 @@
         <v>46</v>
       </c>
       <c r="J12" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="K12" s="3">
@@ -1102,17 +1540,33 @@
       <c r="L12" s="3">
         <v>80</v>
       </c>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="Q12" s="3">
+      <c r="M12" s="3">
+        <v>80</v>
+      </c>
+      <c r="N12" s="3">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="T12" s="2">
+        <v>181</v>
+      </c>
+      <c r="U12" s="2">
+        <v>201</v>
+      </c>
+      <c r="V12" s="3">
         <v>152</v>
       </c>
-      <c r="R12" s="3">
+      <c r="W12" s="3">
         <v>186</v>
       </c>
-      <c r="S12" s="3"/>
-    </row>
-    <row r="13" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X12" s="3">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>28</v>
       </c>
@@ -1132,7 +1586,7 @@
         <v>21</v>
       </c>
       <c r="J13" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="K13" s="3">
@@ -1141,17 +1595,33 @@
       <c r="L13" s="3">
         <v>28</v>
       </c>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="Q13" s="3">
+      <c r="M13" s="3">
+        <v>26</v>
+      </c>
+      <c r="N13" s="3">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="T13" s="2">
+        <v>39</v>
+      </c>
+      <c r="U13" s="2">
+        <v>49</v>
+      </c>
+      <c r="V13" s="3">
         <v>60</v>
       </c>
-      <c r="R13" s="3">
+      <c r="W13" s="3">
         <v>79</v>
       </c>
-      <c r="S13" s="3"/>
-    </row>
-    <row r="14" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>29</v>
       </c>
@@ -1171,7 +1641,7 @@
         <v>21</v>
       </c>
       <c r="J14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="K14" s="3">
@@ -1180,17 +1650,33 @@
       <c r="L14" s="3">
         <v>32</v>
       </c>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="Q14" s="3">
+      <c r="M14" s="3">
+        <v>64</v>
+      </c>
+      <c r="N14" s="3">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="T14" s="2">
+        <v>52</v>
+      </c>
+      <c r="U14" s="2">
+        <v>73</v>
+      </c>
+      <c r="V14" s="3">
         <v>13</v>
       </c>
-      <c r="R14" s="3">
+      <c r="W14" s="3">
         <v>62</v>
       </c>
-      <c r="S14" s="3"/>
-    </row>
-    <row r="15" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>31</v>
       </c>
@@ -1214,7 +1700,7 @@
         <v>912</v>
       </c>
       <c r="J15" s="3">
-        <f t="shared" ref="J15" si="1">SUM(J8:J14)</f>
+        <f t="shared" ref="J15" si="5">SUM(J8:J14)</f>
         <v>973</v>
       </c>
       <c r="K15" s="3">
@@ -1225,19 +1711,39 @@
         <f>SUM(L8:L14)</f>
         <v>1207</v>
       </c>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="Q15" s="3">
-        <f>SUM(Q8:Q14)</f>
+      <c r="M15" s="3">
+        <f>SUM(M8:M14)</f>
+        <v>1305</v>
+      </c>
+      <c r="N15" s="3">
+        <f>SUM(N8:N14)</f>
+        <v>1353</v>
+      </c>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="T15" s="3">
+        <f>SUM(T8:T14)</f>
+        <v>2276</v>
+      </c>
+      <c r="U15" s="3">
+        <f>SUM(U8:U14)</f>
+        <v>2556</v>
+      </c>
+      <c r="V15" s="3">
+        <f>SUM(V8:V14)</f>
         <v>2737</v>
       </c>
-      <c r="R15" s="3">
-        <f>SUM(R8:R14)</f>
+      <c r="W15" s="3">
+        <f>SUM(W8:W14)</f>
         <v>3594</v>
       </c>
-      <c r="S15" s="3"/>
-    </row>
-    <row r="16" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <f>SUM(X8:X14)</f>
+        <v>4923</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
@@ -1261,7 +1767,7 @@
         <v>387</v>
       </c>
       <c r="J16" s="3">
-        <f t="shared" ref="J16" si="2">J7-J15</f>
+        <f t="shared" ref="J16" si="6">J7-J15</f>
         <v>411</v>
       </c>
       <c r="K16" s="3">
@@ -1272,19 +1778,39 @@
         <f>L7-L15</f>
         <v>411</v>
       </c>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="Q16" s="3">
-        <f>Q7-Q15</f>
+      <c r="M16" s="3">
+        <f>M7-M15</f>
+        <v>420</v>
+      </c>
+      <c r="N16" s="3">
+        <f>N7-N15</f>
+        <v>495</v>
+      </c>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="T16" s="3">
+        <f>T7-T15</f>
+        <v>785</v>
+      </c>
+      <c r="U16" s="3">
+        <f>U7-U15</f>
+        <v>933</v>
+      </c>
+      <c r="V16" s="3">
+        <f>V7-V15</f>
         <v>1232</v>
       </c>
-      <c r="R16" s="3">
-        <f>R7-R15</f>
+      <c r="W16" s="3">
+        <f>W7-W15</f>
         <v>1513</v>
       </c>
-      <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="X16" s="3">
+        <f>X7-X15</f>
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>32</v>
       </c>
@@ -1305,7 +1831,7 @@
         <v>-14</v>
       </c>
       <c r="J17" s="3">
-        <f t="shared" ref="J17:J19" si="3">+R17-I17-H17-G17</f>
+        <f t="shared" ref="J17:J19" si="7">+W17-I17-H17-G17</f>
         <v>-19</v>
       </c>
       <c r="K17" s="1">
@@ -1316,17 +1842,32 @@
         <f>-18-25</f>
         <v>-43</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="M17" s="1">
+        <v>-29</v>
+      </c>
+      <c r="N17" s="3">
+        <f t="shared" ref="N17:N19" si="8">X17-M17-L17-K17</f>
+        <v>-21</v>
+      </c>
+      <c r="T17" s="2">
+        <v>-26</v>
+      </c>
+      <c r="U17" s="2">
+        <v>-42</v>
+      </c>
+      <c r="V17" s="1">
         <f>4-46</f>
         <v>-42</v>
       </c>
-      <c r="R17" s="1">
+      <c r="W17" s="1">
         <f>7-68</f>
         <v>-61</v>
       </c>
-      <c r="S17" s="1"/>
-    </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="X17" s="1">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>33</v>
       </c>
@@ -1335,41 +1876,59 @@
         <v>319</v>
       </c>
       <c r="G18" s="3">
-        <f>+G16+G17</f>
+        <f t="shared" ref="G18:N18" si="9">+G16+G17</f>
         <v>336</v>
       </c>
       <c r="H18" s="3">
-        <f>+H16+H17</f>
+        <f t="shared" si="9"/>
         <v>351</v>
       </c>
       <c r="I18" s="3">
-        <f>+I16+I17</f>
+        <f t="shared" si="9"/>
         <v>373</v>
       </c>
       <c r="J18" s="3">
-        <f>+J16+J17</f>
+        <f t="shared" si="9"/>
         <v>392</v>
       </c>
       <c r="K18" s="3">
-        <f>+K16+K17</f>
+        <f t="shared" si="9"/>
         <v>356</v>
       </c>
       <c r="L18" s="3">
-        <f>+L16+L17</f>
+        <f t="shared" si="9"/>
         <v>368</v>
       </c>
-      <c r="M18" s="3"/>
-      <c r="Q18" s="3">
-        <f>+Q16+Q17</f>
+      <c r="M18" s="3">
+        <f t="shared" si="9"/>
+        <v>391</v>
+      </c>
+      <c r="N18" s="3">
+        <f t="shared" si="9"/>
+        <v>474</v>
+      </c>
+      <c r="T18" s="3">
+        <f>+T16+T17</f>
+        <v>759</v>
+      </c>
+      <c r="U18" s="3">
+        <f>+U16+U17</f>
+        <v>891</v>
+      </c>
+      <c r="V18" s="3">
+        <f>+V16+V17</f>
         <v>1190</v>
       </c>
-      <c r="R18" s="3">
-        <f>+R16+R17</f>
+      <c r="W18" s="3">
+        <f>+W16+W17</f>
         <v>1452</v>
       </c>
-      <c r="S18" s="3"/>
-    </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="X18" s="3">
+        <f>+X16+X17</f>
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>34</v>
       </c>
@@ -1387,7 +1946,7 @@
         <v>82</v>
       </c>
       <c r="J19" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>462</v>
       </c>
       <c r="K19" s="1">
@@ -1396,16 +1955,31 @@
       <c r="L19" s="1">
         <v>43</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="M19" s="1">
+        <v>50</v>
+      </c>
+      <c r="N19" s="3">
+        <f t="shared" si="8"/>
+        <v>42</v>
+      </c>
+      <c r="T19">
+        <v>106</v>
+      </c>
+      <c r="U19">
+        <v>123</v>
+      </c>
+      <c r="V19" s="1">
         <v>167</v>
       </c>
-      <c r="R19" s="1">
+      <c r="W19" s="1">
         <f>206+142+295</f>
         <v>643</v>
       </c>
-      <c r="S19" s="1"/>
-    </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="X19" s="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>35</v>
       </c>
@@ -1414,41 +1988,59 @@
         <v>273</v>
       </c>
       <c r="G20" s="3">
-        <f>+G18-G19</f>
+        <f t="shared" ref="G20:N20" si="10">+G18-G19</f>
         <v>287</v>
       </c>
       <c r="H20" s="3">
-        <f>+H18-H19</f>
+        <f t="shared" si="10"/>
         <v>301</v>
       </c>
       <c r="I20" s="3">
-        <f>+I18-I19</f>
+        <f t="shared" si="10"/>
         <v>291</v>
       </c>
       <c r="J20" s="3">
-        <f>+J18-J19</f>
+        <f t="shared" si="10"/>
         <v>-70</v>
       </c>
       <c r="K20" s="3">
-        <f>+K18-K19</f>
+        <f t="shared" si="10"/>
         <v>316</v>
       </c>
       <c r="L20" s="3">
-        <f>+L18-L19</f>
+        <f t="shared" si="10"/>
         <v>325</v>
       </c>
-      <c r="M20" s="3"/>
-      <c r="Q20" s="3">
-        <f>+Q18-Q19</f>
+      <c r="M20" s="3">
+        <f t="shared" si="10"/>
+        <v>341</v>
+      </c>
+      <c r="N20" s="3">
+        <f t="shared" si="10"/>
+        <v>432</v>
+      </c>
+      <c r="T20" s="3">
+        <f>+T18-T19</f>
+        <v>653</v>
+      </c>
+      <c r="U20" s="3">
+        <f>+U18-U19</f>
+        <v>768</v>
+      </c>
+      <c r="V20" s="3">
+        <f>+V18-V19</f>
         <v>1023</v>
       </c>
-      <c r="R20" s="3">
-        <f>+R18-R19</f>
+      <c r="W20" s="3">
+        <f>+W18-W19</f>
         <v>809</v>
       </c>
-      <c r="S20" s="3"/>
-    </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <f>+X18-X19</f>
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>47</v>
       </c>
@@ -1457,41 +2049,59 @@
         <v>12.88250541607897</v>
       </c>
       <c r="G21" s="6">
-        <f>+G20/G22</f>
+        <f t="shared" ref="G21:N21" si="11">+G20/G22</f>
         <v>13.543146719467636</v>
       </c>
       <c r="H21" s="6">
-        <f>+H20/H22</f>
+        <f t="shared" si="11"/>
         <v>14.203788022856301</v>
       </c>
       <c r="I21" s="6">
-        <f>+I20/I22</f>
+        <f t="shared" si="11"/>
         <v>13.731901377578684</v>
       </c>
       <c r="J21" s="6">
-        <f>+J20/J22</f>
+        <f t="shared" si="11"/>
         <v>-3.3032065169433258</v>
       </c>
       <c r="K21" s="6">
-        <f>+K20/K22</f>
+        <f t="shared" si="11"/>
         <v>14.911617990772728</v>
       </c>
       <c r="L21" s="6">
-        <f>+L20/L22</f>
+        <f t="shared" si="11"/>
         <v>15.336315971522584</v>
       </c>
-      <c r="M21" s="6"/>
-      <c r="Q21" s="6">
-        <f>+Q20/Q22</f>
+      <c r="M21" s="6">
+        <f t="shared" si="11"/>
+        <v>16.091334603966775</v>
+      </c>
+      <c r="N21" s="6">
+        <f t="shared" si="11"/>
+        <v>20.385503075993096</v>
+      </c>
+      <c r="T21" s="6">
+        <f t="shared" ref="T21" si="12">+T20/T22</f>
+        <v>30.814197936628453</v>
+      </c>
+      <c r="U21" s="6">
+        <f>+U20/U22</f>
+        <v>36.240894357321061</v>
+      </c>
+      <c r="V21" s="6">
+        <f>+V20/V22</f>
         <v>48.274003811900322</v>
       </c>
-      <c r="R21" s="6">
-        <f>+R20/R22</f>
+      <c r="W21" s="6">
+        <f>+W20/W22</f>
         <v>38.175629602959297</v>
       </c>
-      <c r="S21" s="6"/>
-    </row>
-    <row r="22" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X21" s="6">
+        <f>+X20/X22</f>
+        <v>66.724771642255178</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>1</v>
       </c>
@@ -1519,17 +2129,32 @@
       <c r="L22" s="3">
         <v>21.19153</v>
       </c>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="Q22" s="3">
+      <c r="M22" s="3">
         <v>21.19153</v>
       </c>
-      <c r="R22" s="3">
+      <c r="N22" s="3">
         <v>21.19153</v>
       </c>
-      <c r="S22" s="3"/>
-    </row>
-    <row r="23" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="T22" s="3">
+        <v>21.19153</v>
+      </c>
+      <c r="U22" s="3">
+        <v>21.19153</v>
+      </c>
+      <c r="V22" s="3">
+        <v>21.19153</v>
+      </c>
+      <c r="W22" s="3">
+        <v>21.19153</v>
+      </c>
+      <c r="X22" s="3">
+        <v>21.19153</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -1542,8 +2167,11 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+    </row>
+    <row r="24" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>48</v>
       </c>
@@ -1563,14 +2191,38 @@
         <f>L7/H7-1</f>
         <v>0.29647435897435903</v>
       </c>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="R24" s="9">
-        <f>+R7/Q7-1</f>
+      <c r="M24" s="8">
+        <f>M7/I7-1</f>
+        <v>0.32794457274826794</v>
+      </c>
+      <c r="N24" s="8">
+        <f>N7/J7-1</f>
+        <v>0.33526011560693636</v>
+      </c>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="U24" s="9">
+        <f t="shared" ref="U24:V24" si="13">+U7/T7-1</f>
+        <v>0.13982358706305131</v>
+      </c>
+      <c r="V24" s="9">
+        <f>+V7/U7-1</f>
+        <v>0.13757523645743763</v>
+      </c>
+      <c r="W24" s="9">
+        <f>+W7/V7-1</f>
         <v>0.28672209624590583</v>
       </c>
-    </row>
-    <row r="25" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X24" s="9">
+        <f>+X7/W7-1</f>
+        <v>0.29665165459173681</v>
+      </c>
+    </row>
+    <row r="25" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -1579,374 +2231,1022 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8">
+        <v>-0.03</v>
+      </c>
+      <c r="N25" s="8">
+        <v>-0.01</v>
+      </c>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="W25" s="9"/>
+    </row>
+    <row r="26" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="3">
-        <f>+G20</f>
-        <v>287</v>
-      </c>
-      <c r="H26" s="3">
-        <f>+H20</f>
-        <v>301</v>
-      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
-      <c r="K26" s="3">
-        <f>+K20</f>
-        <v>316</v>
-      </c>
-      <c r="L26" s="3">
-        <f>+L20</f>
-        <v>325</v>
-      </c>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+    </row>
+    <row r="27" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="3">
-        <v>-175</v>
-      </c>
-      <c r="H27" s="3">
-        <v>78</v>
-      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
-      <c r="K27" s="3">
-        <v>111</v>
-      </c>
-      <c r="L27" s="3">
-        <v>134</v>
-      </c>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3">
+        <f>M28-M40</f>
+        <v>-1160</v>
+      </c>
+      <c r="N27" s="3">
+        <f>N28-N40</f>
+        <v>-1162.5999999999999</v>
+      </c>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+    </row>
+    <row r="28" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="3">
-        <v>29</v>
-      </c>
-      <c r="H28" s="3">
-        <v>30</v>
-      </c>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
-      <c r="K28" s="3">
-        <v>32</v>
-      </c>
-      <c r="L28" s="3">
-        <v>35</v>
-      </c>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3">
+        <v>665</v>
+      </c>
+      <c r="N28" s="3">
+        <v>811.4</v>
+      </c>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+    </row>
+    <row r="29" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="3">
-        <v>118</v>
-      </c>
-      <c r="H29" s="3">
-        <v>124</v>
-      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
-      <c r="K29" s="3">
-        <v>146</v>
-      </c>
-      <c r="L29" s="3">
-        <v>168</v>
-      </c>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3">
+        <v>744</v>
+      </c>
+      <c r="N29" s="3">
+        <v>876.4</v>
+      </c>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+    </row>
+    <row r="30" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="3">
-        <v>61</v>
-      </c>
-      <c r="H30" s="3">
-        <v>22</v>
-      </c>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
-      <c r="K30" s="3">
-        <v>27</v>
-      </c>
-      <c r="L30" s="3">
-        <v>29</v>
-      </c>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3">
+        <v>219</v>
+      </c>
+      <c r="N30" s="3">
+        <v>230.4</v>
+      </c>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+    </row>
+    <row r="31" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="3">
-        <v>-2</v>
-      </c>
-      <c r="H31" s="3">
-        <v>-2</v>
-      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
-      <c r="K31" s="3">
-        <v>-2</v>
-      </c>
-      <c r="L31" s="3">
-        <v>18</v>
-      </c>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3">
+        <v>46</v>
+      </c>
+      <c r="N31" s="3">
+        <v>43.4</v>
+      </c>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+    </row>
+    <row r="32" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="3">
-        <v>3</v>
-      </c>
-      <c r="H32" s="3">
-        <v>2</v>
-      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
-      <c r="K32" s="3">
-        <f>-1+1</f>
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3">
+        <v>473</v>
+      </c>
+      <c r="N32" s="3">
+        <v>496.4</v>
+      </c>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+    </row>
+    <row r="33" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="3">
-        <v>263</v>
-      </c>
-      <c r="H33" s="3">
-        <v>32</v>
-      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3">
+        <v>121</v>
+      </c>
+      <c r="N33" s="3">
+        <v>128.4</v>
+      </c>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+    </row>
+    <row r="34" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="3">
-        <v>15</v>
-      </c>
-      <c r="H34" s="3">
-        <v>17</v>
-      </c>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
-      <c r="K34" s="3">
-        <v>19</v>
-      </c>
-      <c r="L34" s="3">
-        <v>25</v>
-      </c>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3">
+        <v>274</v>
+      </c>
+      <c r="N34" s="3">
+        <v>283.39999999999998</v>
+      </c>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+    </row>
+    <row r="35" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
-      <c r="G35" s="3">
-        <v>49</v>
-      </c>
-      <c r="H35" s="3">
-        <v>50</v>
-      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
-      <c r="K35" s="3">
-        <v>40</v>
-      </c>
-      <c r="L35" s="3">
-        <v>43</v>
-      </c>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="36" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3">
+        <v>155</v>
+      </c>
+      <c r="N35" s="3">
+        <v>160.4</v>
+      </c>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+    </row>
+    <row r="36" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
-      <c r="G36" s="3">
-        <v>-13</v>
-      </c>
-      <c r="H36" s="3">
-        <v>15</v>
-      </c>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
-      <c r="K36" s="3">
-        <v>0</v>
-      </c>
-      <c r="L36" s="3">
-        <v>-42</v>
-      </c>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-    </row>
-    <row r="37" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3">
+        <v>159.6</v>
+      </c>
+      <c r="N36" s="3">
+        <v>172.4</v>
+      </c>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+    </row>
+    <row r="37" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="3">
-        <v>198</v>
-      </c>
-      <c r="H37" s="3">
-        <v>-99</v>
-      </c>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
-      <c r="K37" s="3">
-        <v>169</v>
-      </c>
-      <c r="L37" s="3">
-        <v>-188</v>
-      </c>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-    </row>
-    <row r="38" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3">
+        <v>4468.6000000000004</v>
+      </c>
+      <c r="N37" s="3">
+        <v>4679</v>
+      </c>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+    </row>
+    <row r="38" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
-      <c r="G38" s="3">
-        <v>-51</v>
-      </c>
-      <c r="H38" s="3">
-        <v>-97</v>
-      </c>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
-      <c r="K38" s="3">
-        <v>-44</v>
-      </c>
-      <c r="L38" s="3">
-        <v>-146</v>
-      </c>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-    </row>
-    <row r="39" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3">
+        <f>SUM(M28:M37)</f>
+        <v>7325.2000000000007</v>
+      </c>
+      <c r="N38" s="3">
+        <f>SUM(N28:N37)</f>
+        <v>7881.6</v>
+      </c>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+    </row>
+    <row r="39" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
-      <c r="G39" s="3">
-        <f>SUM(G27:G38)</f>
-        <v>495</v>
-      </c>
-      <c r="H39" s="3">
-        <f>SUM(H27:H38)</f>
-        <v>172</v>
-      </c>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
-      <c r="K39" s="3">
-        <f>SUM(K27:K38)</f>
-        <v>498</v>
-      </c>
-      <c r="L39" s="3">
-        <f>SUM(L27:L38)</f>
-        <v>76</v>
-      </c>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-      <c r="Q39" s="2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3">
+        <f>364+234+522+705</f>
+        <v>1825</v>
+      </c>
+      <c r="N40" s="3">
+        <f>505+316+567+586</f>
+        <v>1974</v>
+      </c>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3">
+        <f>917+9</f>
+        <v>926</v>
+      </c>
+      <c r="N41" s="3">
+        <f>1080+11</f>
+        <v>1091</v>
+      </c>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+    </row>
+    <row r="42" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3">
+        <v>21</v>
+      </c>
+      <c r="N42" s="3">
+        <v>21</v>
+      </c>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+    </row>
+    <row r="43" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3">
+        <v>1545</v>
+      </c>
+      <c r="N43" s="3">
+        <v>1484</v>
+      </c>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+    </row>
+    <row r="44" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3">
+        <f>148+62</f>
+        <v>210</v>
+      </c>
+      <c r="N44" s="3">
+        <f>159+77</f>
+        <v>236</v>
+      </c>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+    </row>
+    <row r="45" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3">
+        <f>89+206</f>
+        <v>295</v>
+      </c>
+      <c r="N45" s="3">
+        <f>96+217</f>
+        <v>313</v>
+      </c>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+    </row>
+    <row r="46" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3">
+        <f>99+465</f>
+        <v>564</v>
+      </c>
+      <c r="N46" s="3">
+        <f>97+471</f>
+        <v>568</v>
+      </c>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+    </row>
+    <row r="47" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3">
+        <v>239</v>
+      </c>
+      <c r="N47" s="3">
+        <v>262</v>
+      </c>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+    </row>
+    <row r="48" spans="2:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3">
+        <v>1700</v>
+      </c>
+      <c r="N48" s="3">
+        <v>1933</v>
+      </c>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+    </row>
+    <row r="49" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3">
+        <f>SUM(M40:M48)</f>
+        <v>7325</v>
+      </c>
+      <c r="N49" s="3">
+        <f>SUM(N40:N48)</f>
+        <v>7882</v>
+      </c>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+    </row>
+    <row r="50" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+    </row>
+    <row r="51" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3">
+        <f>+G20</f>
+        <v>287</v>
+      </c>
+      <c r="H51" s="3">
+        <f>+H20</f>
+        <v>301</v>
+      </c>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3">
+        <f>+K20</f>
+        <v>316</v>
+      </c>
+      <c r="L51" s="3">
+        <f>+L20</f>
+        <v>325</v>
+      </c>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+    </row>
+    <row r="52" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3">
+        <v>-175</v>
+      </c>
+      <c r="H52" s="3">
+        <v>78</v>
+      </c>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3">
+        <v>111</v>
+      </c>
+      <c r="L52" s="3">
+        <v>134</v>
+      </c>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+    </row>
+    <row r="53" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3">
+        <v>29</v>
+      </c>
+      <c r="H53" s="3">
+        <v>30</v>
+      </c>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3">
+        <v>32</v>
+      </c>
+      <c r="L53" s="3">
+        <v>35</v>
+      </c>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+    </row>
+    <row r="54" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3">
+        <v>118</v>
+      </c>
+      <c r="H54" s="3">
+        <v>124</v>
+      </c>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3">
+        <v>146</v>
+      </c>
+      <c r="L54" s="3">
+        <v>168</v>
+      </c>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+    </row>
+    <row r="55" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3">
+        <v>61</v>
+      </c>
+      <c r="H55" s="3">
+        <v>22</v>
+      </c>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3">
+        <v>27</v>
+      </c>
+      <c r="L55" s="3">
+        <v>29</v>
+      </c>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3">
+        <v>-2</v>
+      </c>
+      <c r="H56" s="3">
+        <v>-2</v>
+      </c>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3">
+        <v>-2</v>
+      </c>
+      <c r="L56" s="3">
+        <v>18</v>
+      </c>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3">
+        <v>3</v>
+      </c>
+      <c r="H57" s="3">
+        <v>2</v>
+      </c>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3">
+        <f>-1+1</f>
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
+    </row>
+    <row r="58" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3">
+        <v>263</v>
+      </c>
+      <c r="H58" s="3">
+        <v>32</v>
+      </c>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="3"/>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+    </row>
+    <row r="59" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3">
+        <v>15</v>
+      </c>
+      <c r="H59" s="3">
+        <v>17</v>
+      </c>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3">
+        <v>19</v>
+      </c>
+      <c r="L59" s="3">
+        <v>25</v>
+      </c>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+    </row>
+    <row r="60" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3">
+        <v>49</v>
+      </c>
+      <c r="H60" s="3">
+        <v>50</v>
+      </c>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3">
+        <v>40</v>
+      </c>
+      <c r="L60" s="3">
+        <v>43</v>
+      </c>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="3"/>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+    </row>
+    <row r="61" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3">
+        <v>-13</v>
+      </c>
+      <c r="H61" s="3">
+        <v>15</v>
+      </c>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
+        <v>-42</v>
+      </c>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
+      <c r="O61" s="3"/>
+      <c r="P61" s="3"/>
+      <c r="Q61" s="3"/>
+    </row>
+    <row r="62" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3">
+        <v>198</v>
+      </c>
+      <c r="H62" s="3">
+        <v>-99</v>
+      </c>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3">
+        <v>169</v>
+      </c>
+      <c r="L62" s="3">
+        <v>-188</v>
+      </c>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+    </row>
+    <row r="63" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3">
+        <v>-51</v>
+      </c>
+      <c r="H63" s="3">
+        <v>-97</v>
+      </c>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3">
+        <v>-44</v>
+      </c>
+      <c r="L63" s="3">
+        <v>-146</v>
+      </c>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
+      <c r="O63" s="3"/>
+      <c r="P63" s="3"/>
+      <c r="Q63" s="3"/>
+    </row>
+    <row r="64" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3">
+        <f>SUM(G52:G63)</f>
+        <v>495</v>
+      </c>
+      <c r="H64" s="3">
+        <f>SUM(H52:H63)</f>
+        <v>172</v>
+      </c>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3">
+        <f>SUM(K52:K63)</f>
+        <v>498</v>
+      </c>
+      <c r="L64" s="3">
+        <f>SUM(L52:L63)</f>
+        <v>76</v>
+      </c>
+      <c r="M64" s="3"/>
+      <c r="N64" s="3"/>
+      <c r="O64" s="3"/>
+      <c r="P64" s="3"/>
+      <c r="Q64" s="3"/>
+      <c r="V64" s="2">
         <v>1186</v>
       </c>
-      <c r="R39" s="2">
+      <c r="W64" s="2">
         <v>1300</v>
+      </c>
+      <c r="X64" s="2">
+        <v>1297</v>
       </c>
     </row>
   </sheetData>
@@ -1955,5 +3255,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>